--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H2">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I2">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J2">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.528634718986095</v>
+        <v>0.2939176666666667</v>
       </c>
       <c r="N2">
-        <v>0.528634718986095</v>
+        <v>0.881753</v>
       </c>
       <c r="O2">
-        <v>0.1949367853526947</v>
+        <v>0.05105130446133039</v>
       </c>
       <c r="P2">
-        <v>0.1949367853526947</v>
+        <v>0.06158055498365354</v>
       </c>
       <c r="Q2">
-        <v>61.23631442568193</v>
+        <v>36.44254209266956</v>
       </c>
       <c r="R2">
-        <v>61.23631442568193</v>
+        <v>327.9828788340261</v>
       </c>
       <c r="S2">
-        <v>0.03756933903650166</v>
+        <v>0.009977815068902024</v>
       </c>
       <c r="T2">
-        <v>0.03756933903650166</v>
+        <v>0.01314635363949452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H3">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I3">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J3">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.18319167144939</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N3">
-        <v>2.18319167144939</v>
+        <v>0.246584</v>
       </c>
       <c r="O3">
-        <v>0.8050632146473053</v>
+        <v>0.01427659997674257</v>
       </c>
       <c r="P3">
-        <v>0.8050632146473053</v>
+        <v>0.0172211260637494</v>
       </c>
       <c r="Q3">
-        <v>252.8979025456734</v>
+        <v>10.19123019641422</v>
       </c>
       <c r="R3">
-        <v>252.8979025456734</v>
+        <v>91.72107176772802</v>
       </c>
       <c r="S3">
-        <v>0.1551564154614414</v>
+        <v>0.002790316053305333</v>
       </c>
       <c r="T3">
-        <v>0.1551564154614414</v>
+        <v>0.003676404237741314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>197.799631374202</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H4">
-        <v>197.799631374202</v>
+        <v>371.966842</v>
       </c>
       <c r="I4">
-        <v>0.3290878670894614</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J4">
-        <v>0.3290878670894614</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.528634718986095</v>
+        <v>1.236503</v>
       </c>
       <c r="N4">
-        <v>0.528634718986095</v>
+        <v>3.709509</v>
       </c>
       <c r="O4">
-        <v>0.1949367853526947</v>
+        <v>0.2147713400022968</v>
       </c>
       <c r="P4">
-        <v>0.1949367853526947</v>
+        <v>0.2590675880171178</v>
       </c>
       <c r="Q4">
-        <v>104.5637525470545</v>
+        <v>153.3127053445087</v>
       </c>
       <c r="R4">
-        <v>104.5637525470545</v>
+        <v>1379.814348100578</v>
       </c>
       <c r="S4">
-        <v>0.06415133090899446</v>
+        <v>0.04197637524162399</v>
       </c>
       <c r="T4">
-        <v>0.06415133090899446</v>
+        <v>0.05530632404186624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>197.799631374202</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H5">
-        <v>197.799631374202</v>
+        <v>371.966842</v>
       </c>
       <c r="I5">
-        <v>0.3290878670894614</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J5">
-        <v>0.3290878670894614</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.18319167144939</v>
+        <v>1.191477</v>
       </c>
       <c r="N5">
-        <v>2.18319167144939</v>
+        <v>3.574431</v>
       </c>
       <c r="O5">
-        <v>0.8050632146473053</v>
+        <v>0.2069506599433374</v>
       </c>
       <c r="P5">
-        <v>0.8050632146473053</v>
+        <v>0.2496339051080923</v>
       </c>
       <c r="Q5">
-        <v>431.8345078319173</v>
+        <v>147.729979001878</v>
       </c>
       <c r="R5">
-        <v>431.8345078319173</v>
+        <v>1329.569811016902</v>
       </c>
       <c r="S5">
-        <v>0.2649365361804669</v>
+        <v>0.04044784820074389</v>
       </c>
       <c r="T5">
-        <v>0.2649365361804669</v>
+        <v>0.05329240046359018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.0590918178804</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H6">
-        <v>68.0590918178804</v>
+        <v>371.966842</v>
       </c>
       <c r="I6">
-        <v>0.113232877163558</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J6">
-        <v>0.113232877163558</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.528634718986095</v>
+        <v>2.9532075</v>
       </c>
       <c r="N6">
-        <v>0.528634718986095</v>
+        <v>5.906415</v>
       </c>
       <c r="O6">
-        <v>0.1949367853526947</v>
+        <v>0.5129500956162929</v>
       </c>
       <c r="P6">
-        <v>0.1949367853526947</v>
+        <v>0.4124968258273871</v>
       </c>
       <c r="Q6">
-        <v>35.97839887759405</v>
+        <v>366.165089181905</v>
       </c>
       <c r="R6">
-        <v>35.97839887759405</v>
+        <v>2196.99053509143</v>
       </c>
       <c r="S6">
-        <v>0.02207325307050056</v>
+        <v>0.100254464555588</v>
       </c>
       <c r="T6">
-        <v>0.02207325307050056</v>
+        <v>0.0880607384739434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.0590918178804</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H7">
-        <v>68.0590918178804</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I7">
-        <v>0.113232877163558</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J7">
-        <v>0.113232877163558</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.18319167144939</v>
+        <v>0.2939176666666667</v>
       </c>
       <c r="N7">
-        <v>2.18319167144939</v>
+        <v>0.881753</v>
       </c>
       <c r="O7">
-        <v>0.8050632146473053</v>
+        <v>0.05105130446133039</v>
       </c>
       <c r="P7">
-        <v>0.8050632146473053</v>
+        <v>0.06158055498365354</v>
       </c>
       <c r="Q7">
-        <v>148.5860424232058</v>
+        <v>62.08367812423777</v>
       </c>
       <c r="R7">
-        <v>148.5860424232058</v>
+        <v>558.75310311814</v>
       </c>
       <c r="S7">
-        <v>0.09115962409305749</v>
+        <v>0.01699825049376803</v>
       </c>
       <c r="T7">
-        <v>0.09115962409305749</v>
+        <v>0.02239618701094821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.5518471348649</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H8">
-        <v>60.5518471348649</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I8">
-        <v>0.100742747008672</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J8">
-        <v>0.100742747008672</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.528634718986095</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N8">
-        <v>0.528634718986095</v>
+        <v>0.246584</v>
       </c>
       <c r="O8">
-        <v>0.1949367853526947</v>
+        <v>0.01427659997674257</v>
       </c>
       <c r="P8">
-        <v>0.1949367853526947</v>
+        <v>0.0172211260637494</v>
       </c>
       <c r="Q8">
-        <v>32.00980869422829</v>
+        <v>17.36182546199111</v>
       </c>
       <c r="R8">
-        <v>32.00980869422829</v>
+        <v>156.25642915792</v>
       </c>
       <c r="S8">
-        <v>0.01963846724947031</v>
+        <v>0.004753594940709356</v>
       </c>
       <c r="T8">
-        <v>0.01963846724947031</v>
+        <v>0.006263138745099426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.5518471348649</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H9">
-        <v>60.5518471348649</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I9">
-        <v>0.100742747008672</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J9">
-        <v>0.100742747008672</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.18319167144939</v>
+        <v>1.236503</v>
       </c>
       <c r="N9">
-        <v>2.18319167144939</v>
+        <v>3.709509</v>
       </c>
       <c r="O9">
-        <v>0.8050632146473053</v>
+        <v>0.2147713400022968</v>
       </c>
       <c r="P9">
-        <v>0.8050632146473053</v>
+        <v>0.2590675880171178</v>
       </c>
       <c r="Q9">
-        <v>132.1962883557137</v>
+        <v>261.1842123077133</v>
       </c>
       <c r="R9">
-        <v>132.1962883557137</v>
+        <v>2350.65791076942</v>
       </c>
       <c r="S9">
-        <v>0.08110427975920165</v>
+        <v>0.07151114109153806</v>
       </c>
       <c r="T9">
-        <v>0.08110427975920165</v>
+        <v>0.09422010164161108</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>158.804972836137</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H10">
-        <v>158.804972836137</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I10">
-        <v>0.2642107542403656</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J10">
-        <v>0.2642107542403656</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.528634718986095</v>
+        <v>1.191477</v>
       </c>
       <c r="N10">
-        <v>0.528634718986095</v>
+        <v>3.574431</v>
       </c>
       <c r="O10">
-        <v>0.1949367853526947</v>
+        <v>0.2069506599433374</v>
       </c>
       <c r="P10">
-        <v>0.1949367853526947</v>
+        <v>0.2496339051080923</v>
       </c>
       <c r="Q10">
-        <v>83.94982218882575</v>
+        <v>251.6734546764199</v>
       </c>
       <c r="R10">
-        <v>83.94982218882575</v>
+        <v>2265.061092087779</v>
       </c>
       <c r="S10">
-        <v>0.05150439508722771</v>
+        <v>0.06890713557049395</v>
       </c>
       <c r="T10">
-        <v>0.05150439508722771</v>
+        <v>0.09078917240285048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>158.804972836137</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H11">
-        <v>158.804972836137</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I11">
-        <v>0.2642107542403656</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J11">
-        <v>0.2642107542403656</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.18319167144939</v>
+        <v>2.9532075</v>
       </c>
       <c r="N11">
-        <v>2.18319167144939</v>
+        <v>5.906415</v>
       </c>
       <c r="O11">
-        <v>0.8050632146473053</v>
+        <v>0.5129500956162929</v>
       </c>
       <c r="P11">
-        <v>0.8050632146473053</v>
+        <v>0.4124968258273871</v>
       </c>
       <c r="Q11">
-        <v>346.701694080601</v>
+        <v>623.8004878829499</v>
       </c>
       <c r="R11">
-        <v>346.701694080601</v>
+        <v>3742.8029272977</v>
       </c>
       <c r="S11">
-        <v>0.2127063591531378</v>
+        <v>0.1707939553766456</v>
       </c>
       <c r="T11">
-        <v>0.2127063591531378</v>
+        <v>0.1500206689450103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H12">
+        <v>232.903919</v>
+      </c>
+      <c r="I12">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J12">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2939176666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.881753</v>
+      </c>
+      <c r="O12">
+        <v>0.05105130446133039</v>
+      </c>
+      <c r="P12">
+        <v>0.06158055498365354</v>
+      </c>
+      <c r="Q12">
+        <v>22.81819214333411</v>
+      </c>
+      <c r="R12">
+        <v>205.363729290007</v>
+      </c>
+      <c r="S12">
+        <v>0.006247525236683694</v>
+      </c>
+      <c r="T12">
+        <v>0.008231479092962233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H13">
+        <v>232.903919</v>
+      </c>
+      <c r="I13">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J13">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.08219466666666668</v>
+      </c>
+      <c r="N13">
+        <v>0.246584</v>
+      </c>
+      <c r="O13">
+        <v>0.01427659997674257</v>
+      </c>
+      <c r="P13">
+        <v>0.0172211260637494</v>
+      </c>
+      <c r="Q13">
+        <v>6.381153329188445</v>
+      </c>
+      <c r="R13">
+        <v>57.430379962696</v>
+      </c>
+      <c r="S13">
+        <v>0.001747132998654285</v>
+      </c>
+      <c r="T13">
+        <v>0.002301949685069401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H14">
+        <v>232.903919</v>
+      </c>
+      <c r="I14">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J14">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.236503</v>
+      </c>
+      <c r="N14">
+        <v>3.709509</v>
+      </c>
+      <c r="O14">
+        <v>0.2147713400022968</v>
+      </c>
+      <c r="P14">
+        <v>0.2590675880171178</v>
+      </c>
+      <c r="Q14">
+        <v>95.99546485175233</v>
+      </c>
+      <c r="R14">
+        <v>863.959183665771</v>
+      </c>
+      <c r="S14">
+        <v>0.02628315536573768</v>
+      </c>
+      <c r="T14">
+        <v>0.03462959102906964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H15">
+        <v>232.903919</v>
+      </c>
+      <c r="I15">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J15">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.191477</v>
+      </c>
+      <c r="N15">
+        <v>3.574431</v>
+      </c>
+      <c r="O15">
+        <v>0.2069506599433374</v>
+      </c>
+      <c r="P15">
+        <v>0.2496339051080923</v>
+      </c>
+      <c r="Q15">
+        <v>92.49988756612098</v>
+      </c>
+      <c r="R15">
+        <v>832.4989880950889</v>
+      </c>
+      <c r="S15">
+        <v>0.02532608097651443</v>
+      </c>
+      <c r="T15">
+        <v>0.03336858966823598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H16">
+        <v>232.903919</v>
+      </c>
+      <c r="I16">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J16">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.9532075</v>
+      </c>
+      <c r="N16">
+        <v>5.906415</v>
+      </c>
+      <c r="O16">
+        <v>0.5129500956162929</v>
+      </c>
+      <c r="P16">
+        <v>0.4124968258273871</v>
+      </c>
+      <c r="Q16">
+        <v>229.2712001233975</v>
+      </c>
+      <c r="R16">
+        <v>1375.627200740385</v>
+      </c>
+      <c r="S16">
+        <v>0.06277349230027081</v>
+      </c>
+      <c r="T16">
+        <v>0.05513849296442261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H17">
+        <v>182.257702</v>
+      </c>
+      <c r="I17">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J17">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2939176666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.881753</v>
+      </c>
+      <c r="O17">
+        <v>0.05105130446133039</v>
+      </c>
+      <c r="P17">
+        <v>0.06158055498365354</v>
+      </c>
+      <c r="Q17">
+        <v>17.85625283462289</v>
+      </c>
+      <c r="R17">
+        <v>160.706275511606</v>
+      </c>
+      <c r="S17">
+        <v>0.004888967080133058</v>
+      </c>
+      <c r="T17">
+        <v>0.006441499438849464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H18">
+        <v>182.257702</v>
+      </c>
+      <c r="I18">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J18">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.08219466666666668</v>
+      </c>
+      <c r="N18">
+        <v>0.246584</v>
+      </c>
+      <c r="O18">
+        <v>0.01427659997674257</v>
+      </c>
+      <c r="P18">
+        <v>0.0172211260637494</v>
+      </c>
+      <c r="Q18">
+        <v>4.993537021107556</v>
+      </c>
+      <c r="R18">
+        <v>44.941833189968</v>
+      </c>
+      <c r="S18">
+        <v>0.001367209477583326</v>
+      </c>
+      <c r="T18">
+        <v>0.001801378274447897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H19">
+        <v>182.257702</v>
+      </c>
+      <c r="I19">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J19">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.236503</v>
+      </c>
+      <c r="N19">
+        <v>3.709509</v>
+      </c>
+      <c r="O19">
+        <v>0.2147713400022968</v>
+      </c>
+      <c r="P19">
+        <v>0.2590675880171178</v>
+      </c>
+      <c r="Q19">
+        <v>75.12073176536867</v>
+      </c>
+      <c r="R19">
+        <v>676.086585888318</v>
+      </c>
+      <c r="S19">
+        <v>0.02056774106179089</v>
+      </c>
+      <c r="T19">
+        <v>0.02709919914296525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H20">
+        <v>182.257702</v>
+      </c>
+      <c r="I20">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J20">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>1.191477</v>
+      </c>
+      <c r="N20">
+        <v>3.574431</v>
+      </c>
+      <c r="O20">
+        <v>0.2069506599433374</v>
+      </c>
+      <c r="P20">
+        <v>0.2496339051080923</v>
+      </c>
+      <c r="Q20">
+        <v>72.38528666861799</v>
+      </c>
+      <c r="R20">
+        <v>651.4675800175619</v>
+      </c>
+      <c r="S20">
+        <v>0.01981878767546817</v>
+      </c>
+      <c r="T20">
+        <v>0.02611240934899697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H21">
+        <v>182.257702</v>
+      </c>
+      <c r="I21">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J21">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.9532075</v>
+      </c>
+      <c r="N21">
+        <v>5.906415</v>
+      </c>
+      <c r="O21">
+        <v>0.5129500956162929</v>
+      </c>
+      <c r="P21">
+        <v>0.4124968258273871</v>
+      </c>
+      <c r="Q21">
+        <v>179.414937493055</v>
+      </c>
+      <c r="R21">
+        <v>1076.48962495833</v>
+      </c>
+      <c r="S21">
+        <v>0.04912305684801316</v>
+      </c>
+      <c r="T21">
+        <v>0.04314832941664169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>160.7828525</v>
+      </c>
+      <c r="H22">
+        <v>321.565705</v>
+      </c>
+      <c r="I22">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J22">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2939176666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.881753</v>
+      </c>
+      <c r="O22">
+        <v>0.05105130446133039</v>
+      </c>
+      <c r="P22">
+        <v>0.06158055498365354</v>
+      </c>
+      <c r="Q22">
+        <v>47.25692084681084</v>
+      </c>
+      <c r="R22">
+        <v>283.541525080865</v>
+      </c>
+      <c r="S22">
+        <v>0.01293874658184359</v>
+      </c>
+      <c r="T22">
+        <v>0.01136503580139912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>160.7828525</v>
+      </c>
+      <c r="H23">
+        <v>321.565705</v>
+      </c>
+      <c r="I23">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J23">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.08219466666666668</v>
+      </c>
+      <c r="N23">
+        <v>0.246584</v>
+      </c>
+      <c r="O23">
+        <v>0.01427659997674257</v>
+      </c>
+      <c r="P23">
+        <v>0.0172211260637494</v>
+      </c>
+      <c r="Q23">
+        <v>13.21549296695333</v>
+      </c>
+      <c r="R23">
+        <v>79.29295780172001</v>
+      </c>
+      <c r="S23">
+        <v>0.003618346506490275</v>
+      </c>
+      <c r="T23">
+        <v>0.003178255121391366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>160.7828525</v>
+      </c>
+      <c r="H24">
+        <v>321.565705</v>
+      </c>
+      <c r="I24">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J24">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.236503</v>
+      </c>
+      <c r="N24">
+        <v>3.709509</v>
+      </c>
+      <c r="O24">
+        <v>0.2147713400022968</v>
+      </c>
+      <c r="P24">
+        <v>0.2590675880171178</v>
+      </c>
+      <c r="Q24">
+        <v>198.8084794648075</v>
+      </c>
+      <c r="R24">
+        <v>1192.850876788845</v>
+      </c>
+      <c r="S24">
+        <v>0.05443292724160623</v>
+      </c>
+      <c r="T24">
+        <v>0.04781237216160564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>160.7828525</v>
+      </c>
+      <c r="H25">
+        <v>321.565705</v>
+      </c>
+      <c r="I25">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J25">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.191477</v>
+      </c>
+      <c r="N25">
+        <v>3.574431</v>
+      </c>
+      <c r="O25">
+        <v>0.2069506599433374</v>
+      </c>
+      <c r="P25">
+        <v>0.2496339051080923</v>
+      </c>
+      <c r="Q25">
+        <v>191.5690707481425</v>
+      </c>
+      <c r="R25">
+        <v>1149.414424488855</v>
+      </c>
+      <c r="S25">
+        <v>0.05245080752011703</v>
+      </c>
+      <c r="T25">
+        <v>0.0460713332244187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>160.7828525</v>
+      </c>
+      <c r="H26">
+        <v>321.565705</v>
+      </c>
+      <c r="I26">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J26">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.9532075</v>
+      </c>
+      <c r="N26">
+        <v>5.906415</v>
+      </c>
+      <c r="O26">
+        <v>0.5129500956162929</v>
+      </c>
+      <c r="P26">
+        <v>0.4124968258273871</v>
+      </c>
+      <c r="Q26">
+        <v>474.8251258743937</v>
+      </c>
+      <c r="R26">
+        <v>1899.300503497575</v>
+      </c>
+      <c r="S26">
+        <v>0.1300051265357754</v>
+      </c>
+      <c r="T26">
+        <v>0.0761285960273691</v>
       </c>
     </row>
   </sheetData>
